--- a/data/rekap data 2020.xlsx
+++ b/data/rekap data 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\bimbingan\catatanbimbingan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0E8261-0278-4E43-BD3E-D8E58FA487F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD42AF48-F1F2-4A59-8509-9BD5BFF937A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6FB50B29-ECAB-4EF9-8A64-E84BFFC146E3}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95848B45-3495-4384-AC1B-D32540F396C4}">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -1366,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="N24">
         <f>SUM(B24:M24)</f>
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="15"/>
-        <v>43.478260869565219</v>
+        <v>40.909090909090914</v>
       </c>
       <c r="L26">
         <f t="shared" si="15"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="15"/>
-        <v>74.285714285714292</v>
+        <v>73.722627737226276</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="R33">
         <f>N24+N34+N39</f>
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -1760,24 +1760,24 @@
         <v>10</v>
       </c>
       <c r="K34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <f>SUM(B34:M34)</f>
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q34" t="s">
         <v>2</v>
       </c>
       <c r="R34">
         <f>N25+N35+N40</f>
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -1815,18 +1815,18 @@
         <v>19</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
         <f>SUM(B35:M35)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R35">
         <f>R33/(R33+R34)*100</f>
-        <v>72.859744990892523</v>
+        <v>71.508379888268152</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:N36" si="17">C34/(C34+C35)*100</f>
-        <v>87.5</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="D36">
         <f t="shared" si="17"/>
@@ -1868,11 +1868,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="17"/>
-        <v>50</v>
+        <v>48.648648648648653</v>
       </c>
       <c r="L36">
         <f t="shared" si="17"/>
-        <v>90</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="M36">
         <f t="shared" si="17"/>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="17"/>
-        <v>72.61904761904762</v>
+        <v>70.731707317073173</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -1932,28 +1932,28 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>22</v>
       </c>
       <c r="F39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39">
         <v>17</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J39">
         <v>8</v>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="N39">
         <f>SUM(B39:M39)</f>
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -1995,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -2014,21 +2014,21 @@
       </c>
       <c r="N40">
         <f>SUM(B40:M40)</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41">
         <f>B39/(B39+B40)*100</f>
-        <v>92.857142857142861</v>
+        <v>92.307692307692307</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:J41" si="18">C39/(C39+C40)*100</f>
-        <v>94.444444444444443</v>
+        <v>94.117647058823522</v>
       </c>
       <c r="D41">
         <f t="shared" si="18"/>
-        <v>75</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="E41">
         <f t="shared" si="18"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="18"/>
-        <v>67.64705882352942</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G41">
         <f t="shared" si="18"/>
@@ -2044,11 +2044,11 @@
       </c>
       <c r="H41">
         <f t="shared" si="18"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I41">
         <f t="shared" si="18"/>
-        <v>83.870967741935488</v>
+        <v>80</v>
       </c>
       <c r="J41">
         <f t="shared" si="18"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="N41">
         <f t="shared" ref="N41" si="21">N39/(N39+N40)*100</f>
-        <v>72.199170124481327</v>
+        <v>70.762711864406782</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2082,15 +2082,15 @@
       </c>
       <c r="B44">
         <f>B24+B34+B39</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <f t="shared" ref="C44:M44" si="22">C24+C34+C39</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44">
         <f t="shared" si="22"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <f t="shared" si="22"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="22"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <f t="shared" si="22"/>
@@ -2106,11 +2106,11 @@
       </c>
       <c r="H44">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I44">
         <f t="shared" si="22"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <f t="shared" si="22"/>
@@ -2118,15 +2118,15 @@
       </c>
       <c r="K44">
         <f t="shared" si="22"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L44">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M44">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -2159,11 +2159,11 @@
       </c>
       <c r="H45">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I45">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J45">
         <f t="shared" si="23"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M45">
         <f t="shared" si="23"/>
@@ -2185,15 +2185,15 @@
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46">
         <f>B44/(B44+B45)*100</f>
-        <v>94.871794871794862</v>
+        <v>94.594594594594597</v>
       </c>
       <c r="C46">
         <f t="shared" ref="C46:M46" si="24">C44/(C44+C45)*100</f>
-        <v>88.888888888888886</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="D46">
         <f t="shared" si="24"/>
-        <v>76.19047619047619</v>
+        <v>75.609756097560975</v>
       </c>
       <c r="E46">
         <f t="shared" si="24"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="24"/>
-        <v>80.952380952380949</v>
+        <v>80.645161290322577</v>
       </c>
       <c r="G46">
         <f t="shared" si="24"/>
@@ -2209,11 +2209,11 @@
       </c>
       <c r="H46">
         <f t="shared" si="24"/>
-        <v>78.571428571428569</v>
+        <v>76.19047619047619</v>
       </c>
       <c r="I46">
         <f t="shared" si="24"/>
-        <v>84</v>
+        <v>81.25</v>
       </c>
       <c r="J46">
         <f t="shared" si="24"/>
@@ -2221,15 +2221,15 @@
       </c>
       <c r="K46">
         <f t="shared" si="24"/>
-        <v>47.887323943661968</v>
+        <v>46.376811594202898</v>
       </c>
       <c r="L46">
         <f t="shared" si="24"/>
-        <v>65.384615384615387</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="M46">
         <f t="shared" si="24"/>
-        <v>55.000000000000007</v>
+        <v>53.846153846153847</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2247,46 +2247,50 @@
       </c>
       <c r="C49">
         <f>B49+C44</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D49">
         <f t="shared" ref="D49:L49" si="25">C49+D44</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <f t="shared" si="25"/>
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F49">
         <f t="shared" si="25"/>
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G49">
         <f t="shared" si="25"/>
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H49">
         <f t="shared" si="25"/>
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I49">
         <f t="shared" si="25"/>
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J49">
         <f t="shared" si="25"/>
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K49">
         <f t="shared" si="25"/>
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L49">
         <f t="shared" si="25"/>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="M49">
+        <f>L49+M44</f>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2295,98 +2299,106 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <f>2+4</f>
+        <f>B50+C45</f>
         <v>6</v>
       </c>
       <c r="D50">
-        <f>C50+10</f>
+        <f t="shared" ref="D50:M50" si="26">C50+D45</f>
         <v>16</v>
       </c>
       <c r="E50">
-        <f>D50+14</f>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="F50">
-        <f>E50+12</f>
+        <f t="shared" si="26"/>
         <v>42</v>
       </c>
       <c r="G50">
-        <f>F50+17</f>
+        <f t="shared" si="26"/>
         <v>59</v>
       </c>
       <c r="H50">
-        <f>G50+9</f>
-        <v>68</v>
+        <f t="shared" si="26"/>
+        <v>69</v>
       </c>
       <c r="I50">
-        <f>H50+8</f>
-        <v>76</v>
+        <f t="shared" si="26"/>
+        <v>78</v>
       </c>
       <c r="J50">
-        <f>I50+9</f>
-        <v>85</v>
+        <f t="shared" si="26"/>
+        <v>87</v>
       </c>
       <c r="K50">
-        <f>J50+37</f>
-        <v>122</v>
+        <f t="shared" si="26"/>
+        <v>124</v>
       </c>
       <c r="L50">
-        <f>K50+9</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <f>K50+L45</f>
+        <v>135</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="26"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f>B49/(B49+B50)*100</f>
         <v>94.871794871794862</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ref="C51:L51" si="26">C49/(C49+C50)*100</f>
-        <v>92</v>
+        <f t="shared" ref="C51:M51" si="27">C49/(C49+C50)*100</f>
+        <v>91.780821917808225</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="26"/>
-        <v>86.324786324786331</v>
+        <f t="shared" si="27"/>
+        <v>85.964912280701753</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="26"/>
-        <v>81.818181818181827</v>
+        <f t="shared" si="27"/>
+        <v>81.481481481481481</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="26"/>
-        <v>81.578947368421055</v>
+        <f t="shared" si="27"/>
+        <v>81.25</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="26"/>
-        <v>79.225352112676063</v>
+        <f t="shared" si="27"/>
+        <v>78.928571428571431</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="26"/>
-        <v>79.141104294478524</v>
+        <f t="shared" si="27"/>
+        <v>78.571428571428569</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="26"/>
-        <v>79.787234042553195</v>
+        <f t="shared" si="27"/>
+        <v>78.918918918918919</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="26"/>
-        <v>79.368932038834956</v>
+        <f t="shared" si="27"/>
+        <v>78.571428571428569</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="26"/>
-        <v>74.741200828157346</v>
+        <f t="shared" si="27"/>
+        <v>73.894736842105274</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="26"/>
-        <v>74.263261296660119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>73</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="27"/>
+        <v>71.614100185528756</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -2394,12 +2406,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>33</v>
       </c>
